--- a/oussama.xlsx
+++ b/oussama.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="1512" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GRH" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>Code accès</t>
   </si>
@@ -178,6 +178,30 @@
   </si>
   <si>
     <t>Manager</t>
+  </si>
+  <si>
+    <t>Congé N</t>
+  </si>
+  <si>
+    <t>Congé N-1</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Site 01</t>
+  </si>
+  <si>
+    <t>Site 02</t>
+  </si>
+  <si>
+    <t>Site 03</t>
+  </si>
+  <si>
+    <t>Site 04</t>
+  </si>
+  <si>
+    <t>Site 05</t>
   </si>
 </sst>
 </file>
@@ -539,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -580,10 +604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,28 +616,37 @@
     <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -623,18 +656,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -647,8 +681,17 @@
       <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -661,8 +704,17 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -675,8 +727,17 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -689,8 +750,17 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -703,8 +773,17 @@
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -717,8 +796,17 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -731,8 +819,17 @@
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -745,8 +842,17 @@
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -759,8 +865,17 @@
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -773,8 +888,17 @@
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -787,8 +911,17 @@
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -801,8 +934,17 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -815,8 +957,17 @@
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -829,8 +980,17 @@
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -843,8 +1003,17 @@
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -857,8 +1026,17 @@
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -871,8 +1049,17 @@
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -885,8 +1072,17 @@
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -899,8 +1095,17 @@
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -913,8 +1118,17 @@
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -926,6 +1140,15 @@
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/oussama.xlsx
+++ b/oussama.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="GRH" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="102">
   <si>
     <t xml:space="preserve">Code accès</t>
   </si>
@@ -30,40 +30,76 @@
     <t xml:space="preserve">Nom et prénom</t>
   </si>
   <si>
+    <t xml:space="preserve">Date de naissance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieu de naissance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profil</t>
+  </si>
+  <si>
     <t xml:space="preserve">G001</t>
   </si>
   <si>
     <t xml:space="preserve">Premier GRH</t>
   </si>
   <si>
+    <t xml:space="preserve">10-10-1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilaya 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRH</t>
+  </si>
+  <si>
     <t xml:space="preserve">G002</t>
   </si>
   <si>
     <t xml:space="preserve">Deuxième GRH</t>
   </si>
   <si>
+    <t xml:space="preserve">22-08-1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilaya 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site 02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matricule</t>
   </si>
   <si>
-    <t xml:space="preserve">GRH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site</t>
-  </si>
-  <si>
     <t xml:space="preserve">Congé N</t>
   </si>
   <si>
     <t xml:space="preserve">Congé N-1</t>
   </si>
   <si>
+    <t xml:space="preserve">Service</t>
+  </si>
+  <si>
     <t xml:space="preserve">M001</t>
   </si>
   <si>
     <t xml:space="preserve">Premier manager</t>
   </si>
   <si>
-    <t xml:space="preserve">Site 01</t>
+    <t xml:space="preserve">Service 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05-12-1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager</t>
   </si>
   <si>
     <t xml:space="preserve">M002</t>
@@ -72,13 +108,16 @@
     <t xml:space="preserve">Deuxième manager</t>
   </si>
   <si>
-    <t xml:space="preserve">Site 02</t>
+    <t xml:space="preserve">Service 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-05-1975</t>
   </si>
   <si>
     <t xml:space="preserve">Nom et Prénom</t>
   </si>
   <si>
-    <t xml:space="preserve">Manager</t>
+    <t xml:space="preserve">Poste</t>
   </si>
   <si>
     <t xml:space="preserve">S001</t>
@@ -87,12 +126,24 @@
     <t xml:space="preserve">Salarié 01</t>
   </si>
   <si>
+    <t xml:space="preserve">01-01-1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poste 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employé</t>
+  </si>
+  <si>
     <t xml:space="preserve">S002</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 02</t>
   </si>
   <si>
+    <t xml:space="preserve">01-01-1981</t>
+  </si>
+  <si>
     <t xml:space="preserve">S003</t>
   </si>
   <si>
@@ -102,6 +153,9 @@
     <t xml:space="preserve">Site 03</t>
   </si>
   <si>
+    <t xml:space="preserve">01-01-1982</t>
+  </si>
+  <si>
     <t xml:space="preserve">S004</t>
   </si>
   <si>
@@ -111,6 +165,9 @@
     <t xml:space="preserve">Site 04</t>
   </si>
   <si>
+    <t xml:space="preserve">01-01-1983</t>
+  </si>
+  <si>
     <t xml:space="preserve">S005</t>
   </si>
   <si>
@@ -120,94 +177,157 @@
     <t xml:space="preserve">Site 05</t>
   </si>
   <si>
+    <t xml:space="preserve">01-01-1984</t>
+  </si>
+  <si>
     <t xml:space="preserve">S006</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 06</t>
   </si>
   <si>
+    <t xml:space="preserve">01-01-1985</t>
+  </si>
+  <si>
     <t xml:space="preserve">S007</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 07</t>
   </si>
   <si>
+    <t xml:space="preserve">02-02-1974</t>
+  </si>
+  <si>
     <t xml:space="preserve">S008</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 08</t>
   </si>
   <si>
+    <t xml:space="preserve">02-02-1975</t>
+  </si>
+  <si>
     <t xml:space="preserve">S009</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 09</t>
   </si>
   <si>
+    <t xml:space="preserve">02-02-1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poste 02</t>
+  </si>
+  <si>
     <t xml:space="preserve">S010</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 10</t>
   </si>
   <si>
+    <t xml:space="preserve">02-02-1977</t>
+  </si>
+  <si>
     <t xml:space="preserve">S011</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 11</t>
   </si>
   <si>
+    <t xml:space="preserve">02-02-1978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service 03</t>
+  </si>
+  <si>
     <t xml:space="preserve">S012</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 12</t>
   </si>
   <si>
+    <t xml:space="preserve">02-02-1979</t>
+  </si>
+  <si>
     <t xml:space="preserve">S013</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 13</t>
   </si>
   <si>
+    <t xml:space="preserve">02-02-1980</t>
+  </si>
+  <si>
     <t xml:space="preserve">S014</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 14</t>
   </si>
   <si>
+    <t xml:space="preserve">02-02-1981</t>
+  </si>
+  <si>
     <t xml:space="preserve">S015</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 15</t>
   </si>
   <si>
+    <t xml:space="preserve">03-03-1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilaya 03</t>
+  </si>
+  <si>
     <t xml:space="preserve">S016</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 16</t>
   </si>
   <si>
+    <t xml:space="preserve">03-03-1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poste 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">S017</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 17</t>
   </si>
   <si>
+    <t xml:space="preserve">03-03-1991</t>
+  </si>
+  <si>
     <t xml:space="preserve">S018</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 18</t>
   </si>
   <si>
+    <t xml:space="preserve">03-03-1992</t>
+  </si>
+  <si>
     <t xml:space="preserve">S019</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 19</t>
   </si>
   <si>
+    <t xml:space="preserve">03-03-1993</t>
+  </si>
+  <si>
     <t xml:space="preserve">S020</t>
   </si>
   <si>
     <t xml:space="preserve">Salarié 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-03-1994</t>
   </si>
 </sst>
 </file>
@@ -325,16 +445,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,21 +467,57 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -377,50 +536,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>5</v>
@@ -428,16 +601,28 @@
       <c r="F2" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>16</v>
@@ -447,6 +632,18 @@
       </c>
       <c r="F3" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -465,56 +662,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>5</v>
@@ -522,19 +736,34 @@
       <c r="G2" s="1" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -545,22 +774,37 @@
       <c r="G3" s="1" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>5</v>
@@ -568,22 +812,37 @@
       <c r="G4" s="1" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>5</v>
@@ -591,22 +850,37 @@
       <c r="G5" s="1" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0</v>
@@ -614,22 +888,37 @@
       <c r="G6" s="1" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0</v>
@@ -637,19 +926,34 @@
       <c r="G7" s="1" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -660,22 +964,37 @@
       <c r="G8" s="1" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>2.5</v>
@@ -683,22 +1002,37 @@
       <c r="G9" s="1" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>2.5</v>
@@ -706,22 +1040,37 @@
       <c r="G10" s="1" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>2.5</v>
@@ -729,22 +1078,37 @@
       <c r="G11" s="1" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>2.5</v>
@@ -752,19 +1116,34 @@
       <c r="G12" s="1" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
@@ -775,22 +1154,37 @@
       <c r="G13" s="1" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>5</v>
@@ -798,22 +1192,37 @@
       <c r="G14" s="1" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>5</v>
@@ -821,22 +1230,37 @@
       <c r="G15" s="1" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>5</v>
@@ -844,22 +1268,37 @@
       <c r="G16" s="1" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>5</v>
@@ -867,19 +1306,34 @@
       <c r="G17" s="1" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
@@ -890,22 +1344,37 @@
       <c r="G18" s="1" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>5</v>
@@ -913,22 +1382,37 @@
       <c r="G19" s="1" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>5</v>
@@ -936,28 +1420,58 @@
       <c r="G20" s="1" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
